--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Учет налогов" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="date_create">'Учет налогов'!$A$4</definedName>
-    <definedName name="fio" localSheetId="0">'Учет налогов'!$J$13</definedName>
-    <definedName name="position" localSheetId="0">'Учет налогов'!$A$13</definedName>
-    <definedName name="report_code">'Учет налогов'!$K$1</definedName>
-    <definedName name="report_name">'Учет налогов'!$G$7</definedName>
-    <definedName name="report_period">'Учет налогов'!$G$8</definedName>
-    <definedName name="subdivision" localSheetId="0">'Учет налогов'!$A$1</definedName>
+    <definedName name="date_create">'Лист 1'!$A$4</definedName>
+    <definedName name="fio" localSheetId="0">'Лист 1'!$J$13</definedName>
+    <definedName name="position" localSheetId="0">'Лист 1'!$A$13</definedName>
+    <definedName name="report_code">'Лист 1'!$K$1</definedName>
+    <definedName name="report_name">'Лист 1'!$G$7</definedName>
+    <definedName name="report_period">'Лист 1'!$G$8</definedName>
+    <definedName name="subdivision" localSheetId="0">'Лист 1'!$B$1</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,6 +93,14 @@
       <b/>
       <u/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,15 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="15"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -150,6 +155,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,53 +483,59 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="15"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="K2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
@@ -17,6 +17,7 @@
     <definedName name="report_name">'Лист 1'!$G$7</definedName>
     <definedName name="report_period">'Лист 1'!$G$8</definedName>
     <definedName name="subdivision" localSheetId="0">'Лист 1'!$B$1</definedName>
+    <definedName name="subdivision_sign">'Лист 1'!$B$2</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
@@ -461,7 +462,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
@@ -14,8 +14,8 @@
     <definedName name="fio" localSheetId="0">'Лист 1'!$J$13</definedName>
     <definedName name="position" localSheetId="0">'Лист 1'!$A$13</definedName>
     <definedName name="report_code">'Лист 1'!$K$1</definedName>
-    <definedName name="report_name">'Лист 1'!$G$7</definedName>
-    <definedName name="report_period">'Лист 1'!$G$8</definedName>
+    <definedName name="report_name">'Лист 1'!$A$7</definedName>
+    <definedName name="report_period">'Лист 1'!$A$8</definedName>
     <definedName name="subdivision" localSheetId="0">'Лист 1'!$B$1</definedName>
     <definedName name="subdivision_sign">'Лист 1'!$B$2</definedName>
   </definedNames>
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -163,6 +163,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,7 +468,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,6 +491,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
+      <c r="K1" s="16"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
@@ -503,9 +510,11 @@
       <c r="A4" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="17"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A8" s="17"/>
       <c r="G8" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">

--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
@@ -26,10 +26,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Подразделение</t>
+    <t>наименование территориального банка / учётного подразделения Центрального аппарата</t>
   </si>
   <si>
-    <t>наименование территориального банка / учётного подразделения Центрального аппарата</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Подразделение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -162,14 +193,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,7 +499,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,17 +518,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1"/>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="K1" s="15"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -510,11 +541,11 @@
       <c r="A4" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="G8" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">

--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
@@ -16,7 +16,7 @@
     <definedName name="report_code">'Лист 1'!$K$1</definedName>
     <definedName name="report_name">'Лист 1'!$A$7</definedName>
     <definedName name="report_period">'Лист 1'!$A$8</definedName>
-    <definedName name="subdivision" localSheetId="0">'Лист 1'!$B$1</definedName>
+    <definedName name="subdivision" localSheetId="0">'Лист 1'!$A$1</definedName>
     <definedName name="subdivision_sign">'Лист 1'!$B$2</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -159,9 +159,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -499,12 +498,12 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J10" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.140625"/>
     <col min="3" max="3" width="9.28515625"/>
     <col min="4" max="4" width="8.5703125"/>
@@ -518,62 +517,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="16"/>
+      <c r="K1" s="14"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="15"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="15"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/formdata/acctax.xlsx
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -199,6 +199,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -498,7 +501,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J9:J10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,7 +536,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="17"/>
       <c r="M2" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
